--- a/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
+++ b/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\LPGRbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\LPGRbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D00D5D7-DAF6-4B8E-B915-771542EAFEA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24195" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24195" windowHeight="20145"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,10 @@
     <sheet name="OECD Info Comms" sheetId="16" r:id="rId7"/>
     <sheet name="OECD Finance Insurance" sheetId="17" r:id="rId8"/>
     <sheet name="OECD Prof Tech Admin" sheetId="18" r:id="rId9"/>
-    <sheet name="LPGRbIC" sheetId="2" r:id="rId10"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="19" r:id="rId10"/>
+    <sheet name="LPGRbIC" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="215">
   <si>
     <t>Source:</t>
   </si>
@@ -656,15 +656,49 @@
   <si>
     <t>Unit: %</t>
   </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
+  </si>
+  <si>
+    <t>Unit: jobs</t>
+  </si>
+  <si>
+    <t>ISIC 41T57*</t>
+  </si>
+  <si>
+    <t>EU28</t>
+  </si>
+  <si>
+    <t>Labor Productivity Before ISIC Code Allocation</t>
+  </si>
+  <si>
+    <t>Pre ISIC Consolidation Employment (see io-model/BEbIC)</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Labor Productivity*Jobs</t>
+  </si>
+  <si>
+    <t>Weighted Labor Productivity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -786,7 +820,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +978,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,6 +1044,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1144,19 +1186,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Comma 2" xfId="8" xr:uid="{C6B60ADF-88AC-496D-BA56-A84A73BDAE2B}"/>
+    <cellStyle name="Comma 2" xfId="8"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{CE02BDA6-0DDB-4485-B9BF-B97F6FBDD740}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{88C1DBE8-537C-4A45-89D7-8B45088DBF9C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A9722F2B-23CE-445E-9874-8ECBC7507849}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{F19495B1-953A-4979-B123-1CA5B47F03BA}"/>
-    <cellStyle name="Normal 4 2 2" xfId="7" xr:uid="{524B0D51-EC0A-415E-A5DF-B6129453BFBE}"/>
-    <cellStyle name="Normal 4 3" xfId="9" xr:uid="{C1A13202-7AD1-43C7-949D-170B5881025C}"/>
-    <cellStyle name="Normal 5" xfId="11" xr:uid="{D24C28D5-E14C-4190-828B-B53BB5D0383A}"/>
+    <cellStyle name="Normal 11" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="12"/>
+    <cellStyle name="Normal 4 2 2" xfId="7"/>
+    <cellStyle name="Normal 4 3" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1443,17 +1485,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,49 +1503,49 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1511,23 +1553,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3">
+        <v>10882060</v>
+      </c>
+      <c r="C3">
+        <v>227812.6189706689</v>
+      </c>
+      <c r="D3">
+        <v>77587.381029331096</v>
+      </c>
+      <c r="E3">
+        <v>267301.4807059528</v>
+      </c>
+      <c r="F3">
+        <v>91471.238408615027</v>
+      </c>
+      <c r="G3">
+        <v>4849390.5508013228</v>
+      </c>
+      <c r="H3">
+        <v>2379315.8528638799</v>
+      </c>
+      <c r="I3">
+        <v>1101822.6632640401</v>
+      </c>
+      <c r="J3">
+        <v>1439385.8820167219</v>
+      </c>
+      <c r="K3">
+        <v>141352.36908409561</v>
+      </c>
+      <c r="L3">
+        <v>1171590.6388823807</v>
+      </c>
+      <c r="M3">
+        <v>578508.46606405417</v>
+      </c>
+      <c r="N3">
+        <v>1695589.6126779383</v>
+      </c>
+      <c r="O3">
+        <v>220056.72826097364</v>
+      </c>
+      <c r="P3">
+        <v>1046543.2717390264</v>
+      </c>
+      <c r="Q3">
+        <v>522375.83046934305</v>
+      </c>
+      <c r="R3">
+        <v>519424.16953065695</v>
+      </c>
+      <c r="S3">
+        <v>3694190.2238361505</v>
+      </c>
+      <c r="T3">
+        <v>1166892.6315906015</v>
+      </c>
+      <c r="U3">
+        <v>1536033.5504767112</v>
+      </c>
+      <c r="V3">
+        <v>3003438.806130595</v>
+      </c>
+      <c r="W3">
+        <v>2406704.7214970901</v>
+      </c>
+      <c r="X3">
+        <v>710812.68107877835</v>
+      </c>
+      <c r="Y3">
+        <v>3565332.1165061463</v>
+      </c>
+      <c r="Z3">
+        <v>307551.00863117975</v>
+      </c>
+      <c r="AA3">
+        <v>202704.64135759757</v>
+      </c>
+      <c r="AB3">
+        <v>2401944.3500112225</v>
+      </c>
+      <c r="AC3">
+        <v>14435460</v>
+      </c>
+      <c r="AD3">
+        <v>33839304.907865703</v>
+      </c>
+      <c r="AE3">
+        <v>11277885.035932414</v>
+      </c>
+      <c r="AF3">
+        <v>11373190</v>
+      </c>
+      <c r="AG3">
+        <v>1756776.855956225</v>
+      </c>
+      <c r="AH3">
+        <v>1109814.0461441691</v>
+      </c>
+      <c r="AI3">
+        <v>3793589.0978996074</v>
+      </c>
+      <c r="AJ3">
+        <v>6028180</v>
+      </c>
+      <c r="AK3">
+        <v>2510510</v>
+      </c>
+      <c r="AL3">
+        <v>28718410</v>
+      </c>
+      <c r="AM3">
+        <v>14624520</v>
+      </c>
+      <c r="AN3">
+        <v>15496780</v>
+      </c>
+      <c r="AO3">
+        <v>24103090</v>
+      </c>
+      <c r="AP3">
+        <v>10310980</v>
+      </c>
+      <c r="AQ3">
+        <v>3718500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+    </row>
+    <row r="6" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="C7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="D7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="E7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="F7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="G7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="H7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="I7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="J7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="K7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="L7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="M7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="N7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="O7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="P7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="Q7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="R7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="S7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="T7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="U7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="V7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="W7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="X7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="Y7" s="28">
+        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
+        <v>2.3536263333333336</v>
+      </c>
+      <c r="Z7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="AA7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="AB7" s="28">
+        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
+        <v>0.55526191666666636</v>
+      </c>
+      <c r="AC7" s="28">
+        <f>AVERAGE('OECD Construction'!$D$45:$AB$45)</f>
+        <v>-5.2770833333333489E-3</v>
+      </c>
+      <c r="AD7" s="28">
+        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
+        <v>0.91992191666666667</v>
+      </c>
+      <c r="AE7" s="28">
+        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
+        <v>0.91992191666666667</v>
+      </c>
+      <c r="AF7" s="28">
+        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
+        <v>0.91992191666666667</v>
+      </c>
+      <c r="AG7" s="28">
+        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
+        <v>3.0108809999999999</v>
+      </c>
+      <c r="AH7" s="28">
+        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
+        <v>3.0108809999999999</v>
+      </c>
+      <c r="AI7" s="28">
+        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
+        <v>3.0108809999999999</v>
+      </c>
+      <c r="AJ7" s="28">
+        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
+        <v>1.6492819583333331</v>
+      </c>
+      <c r="AK7" s="28">
+        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
+        <v>1.6492819583333331</v>
+      </c>
+      <c r="AL7" s="28">
+        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
+        <v>1.6492819583333331</v>
+      </c>
+      <c r="AM7" s="28">
+        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
+        <v>-0.25208329166666654</v>
+      </c>
+      <c r="AN7" s="28">
+        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
+        <v>-0.25208329166666654</v>
+      </c>
+      <c r="AO7" s="28">
+        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
+        <v>-0.25208329166666654</v>
+      </c>
+      <c r="AP7" s="28">
+        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
+        <v>-0.25208329166666654</v>
+      </c>
+      <c r="AQ7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A9" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A13" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+    </row>
+    <row r="14" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15">
+        <f>(B3*B7)/100</f>
+        <v>256123.02976913337</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AQ15" si="0">(C3*C7)/100</f>
+        <v>1264.9567145050657</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>430.81317899493331</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1484.223325046253</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>507.9049515864117</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>114136.53300983833</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>56000.204466178875</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>25932.788349217109</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>33877.765157427835</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3326.9065815537997</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>27574.865795603953</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>13615.92759784631</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>39907.843629252631</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>5179.3131046220515</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>24631.718033377951</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>12294.77510489515</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>12225.30403577152</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>86947.433911633256</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>27464.292258842717</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>36152.490132854837</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>70689.726646641982</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>56644.836090732177</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>16729.874442542812</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>83914.595564879346</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>1707.7136252531532</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1125.5416767744882</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>13337.082235139014</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>-761.77125375000219</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>311295.18229511561</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>103747.73618201265</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>104624.46743414167</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>52894.460568383343</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>33415.180250686019</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>114220.45336673068</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>99421.685155858329</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>41405.388492154161</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="0"/>
+        <v>473647.55485019577</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="0"/>
+        <v>-36865.971406449986</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="0"/>
+        <v>-39064.793126341647</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>-60759.862665379143</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="0"/>
+        <v>-25992.257787091654</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,B14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,B14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="C16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,C14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,C14),0)</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="D16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,D14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,D14),0)</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="E16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,E14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,E14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,F14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,F14),0)</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="G16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,G14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,G14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="H16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,H14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,H14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,I14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,I14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="J16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,J14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,J14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="K16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,K14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,K14),0)</f>
+        <v>2.3536263333333331E-2</v>
+      </c>
+      <c r="L16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,L14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,L14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="M16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,M14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,M14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="N16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,N14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,N14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,O14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,O14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="P16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,P14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,P14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Q14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Q14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="R16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,R14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,R14),0)</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="S16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,S14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,S14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,T14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,T14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,U14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,U14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,V14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,V14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="W16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,W14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,W14),0)</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="X16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,X14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,X14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Y14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Y14),0)</f>
+        <v>6.2385728102381686E-3</v>
+      </c>
+      <c r="Z16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Z14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Z14),0)</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="AA16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AA14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AA14),0)</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AB16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AB14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AB14),0)</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AC16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AC14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AC14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AD14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AD14),0)</f>
+        <v>9.1992191666666681E-3</v>
+      </c>
+      <c r="AE16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AE14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AE14),0)</f>
+        <v>9.1992191666666664E-3</v>
+      </c>
+      <c r="AF16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AF14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AF14),0)</f>
+        <v>9.1992191666666664E-3</v>
+      </c>
+      <c r="AG16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AG14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AG14),0)</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AH16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AH14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AH14),0)</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AI16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AI14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AI14),0)</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AJ16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AJ14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AJ14),0)</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AK16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AK14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AK14),0)</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AL16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AL14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AL14),0)</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AM16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AM14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AM14),0)</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AN16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AN14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AN14),0)</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AO16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AO14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AO14),0)</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AP16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AP14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AP14),0)</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AQ16" s="30">
+        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AQ14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AQ14),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="B2" sqref="B2:AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="39" width="10.140625" customWidth="1"/>
+    <col min="2" max="39" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>203</v>
       </c>
@@ -1658,179 +3258,180 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="C2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="D2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="E2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="F2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="G2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="H2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="I2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="J2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="K2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="L2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="M2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="N2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="O2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="P2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="Q2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="R2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="S2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="T2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="U2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="V2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="W2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="X2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="Y2" s="28">
-        <f>AVERAGE('OECD Manufacturing'!$D$45:$AB$45)</f>
-        <v>2.3536263333333336</v>
-      </c>
-      <c r="Z2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="AA2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="AB2" s="28">
-        <f>AVERAGE('OECD Mining &amp; Utilities'!$D$45:$AB$45)</f>
-        <v>0.55526191666666636</v>
-      </c>
-      <c r="AC2" s="28">
-        <f>AVERAGE('OECD Construction'!$D$45:$AB$45)</f>
-        <v>-5.2770833333333489E-3</v>
-      </c>
-      <c r="AD2" s="28">
-        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
-        <v>0.91992191666666667</v>
-      </c>
-      <c r="AE2" s="28">
-        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
-        <v>0.91992191666666667</v>
-      </c>
-      <c r="AF2" s="28">
-        <f>AVERAGE('OECD Transport Retail Food'!$D$45:$AB$45)</f>
-        <v>0.91992191666666667</v>
-      </c>
-      <c r="AG2" s="28">
-        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
-        <v>3.0108809999999999</v>
-      </c>
-      <c r="AH2" s="28">
-        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
-        <v>3.0108809999999999</v>
-      </c>
-      <c r="AI2" s="28">
-        <f>AVERAGE('OECD Info Comms'!$D$45:$AB$45)</f>
-        <v>3.0108809999999999</v>
-      </c>
-      <c r="AJ2" s="28">
-        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
-        <v>1.6492819583333331</v>
-      </c>
-      <c r="AK2" s="28">
-        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
-        <v>1.6492819583333331</v>
-      </c>
-      <c r="AL2" s="28">
-        <f>AVERAGE('OECD Finance Insurance'!$D$45:$AB$45)</f>
-        <v>1.6492819583333331</v>
-      </c>
-      <c r="AM2" s="28">
-        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
-        <v>-0.25208329166666654</v>
-      </c>
-      <c r="AN2" s="28">
-        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
-        <v>-0.25208329166666654</v>
-      </c>
-      <c r="AO2" s="28">
-        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
-        <v>-0.25208329166666654</v>
-      </c>
-      <c r="AP2" s="28">
-        <f>AVERAGE('OECD Prof Tech Admin'!$D$45:$AB$45)</f>
-        <v>-0.25208329166666654</v>
-      </c>
-      <c r="AQ2" s="28">
+      <c r="B2" s="30">
+        <f>'Pre ISIC Consolidation'!B16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="C2" s="30">
+        <f>'Pre ISIC Consolidation'!C16</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="D2" s="30">
+        <f>'Pre ISIC Consolidation'!D16</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="E2" s="30">
+        <f>'Pre ISIC Consolidation'!E16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F2" s="30">
+        <f>'Pre ISIC Consolidation'!F16</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="G2" s="30">
+        <f>'Pre ISIC Consolidation'!G16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="H2" s="30">
+        <f>'Pre ISIC Consolidation'!H16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="I2" s="30">
+        <f>'Pre ISIC Consolidation'!I16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="J2" s="30">
+        <f>'Pre ISIC Consolidation'!J16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="K2" s="30">
+        <f>'Pre ISIC Consolidation'!K16</f>
+        <v>2.3536263333333331E-2</v>
+      </c>
+      <c r="L2" s="30">
+        <f>'Pre ISIC Consolidation'!L16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="M2" s="30">
+        <f>'Pre ISIC Consolidation'!M16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="N2" s="30">
+        <f>'Pre ISIC Consolidation'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="30">
+        <f>'Pre ISIC Consolidation'!O16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="P2" s="30">
+        <f>'Pre ISIC Consolidation'!P16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>'Pre ISIC Consolidation'!Q16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="R2" s="30">
+        <f>'Pre ISIC Consolidation'!R16</f>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="S2" s="30">
+        <f>'Pre ISIC Consolidation'!S16</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="30">
+        <f>'Pre ISIC Consolidation'!T16</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="30">
+        <f>'Pre ISIC Consolidation'!U16</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="30">
+        <f>'Pre ISIC Consolidation'!V16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="W2" s="30">
+        <f>'Pre ISIC Consolidation'!W16</f>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="X2" s="30">
+        <f>'Pre ISIC Consolidation'!X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="30">
+        <f>'Pre ISIC Consolidation'!Y16</f>
+        <v>6.2385728102381686E-3</v>
+      </c>
+      <c r="Z2" s="30">
+        <f>'Pre ISIC Consolidation'!Z16</f>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="AA2" s="30">
+        <f>'Pre ISIC Consolidation'!AA16</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AB2" s="30">
+        <f>'Pre ISIC Consolidation'!AB16</f>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AC2" s="30">
+        <f>'Pre ISIC Consolidation'!AC16</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="30">
+        <f>'Pre ISIC Consolidation'!AD16</f>
+        <v>9.1992191666666681E-3</v>
+      </c>
+      <c r="AE2" s="30">
+        <f>'Pre ISIC Consolidation'!AE16</f>
+        <v>9.1992191666666664E-3</v>
+      </c>
+      <c r="AF2" s="30">
+        <f>'Pre ISIC Consolidation'!AF16</f>
+        <v>9.1992191666666664E-3</v>
+      </c>
+      <c r="AG2" s="30">
+        <f>'Pre ISIC Consolidation'!AG16</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AH2" s="30">
+        <f>'Pre ISIC Consolidation'!AH16</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AI2" s="30">
+        <f>'Pre ISIC Consolidation'!AI16</f>
+        <v>3.010881E-2</v>
+      </c>
+      <c r="AJ2" s="30">
+        <f>'Pre ISIC Consolidation'!AJ16</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AK2" s="30">
+        <f>'Pre ISIC Consolidation'!AK16</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AL2" s="30">
+        <f>'Pre ISIC Consolidation'!AL16</f>
+        <v>1.6492819583333332E-2</v>
+      </c>
+      <c r="AM2" s="30">
+        <f>'Pre ISIC Consolidation'!AM16</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AN2" s="30">
+        <f>'Pre ISIC Consolidation'!AN16</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AO2" s="30">
+        <f>'Pre ISIC Consolidation'!AO16</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AP2" s="30">
+        <f>'Pre ISIC Consolidation'!AP16</f>
+        <v>-2.5208329166666655E-3</v>
+      </c>
+      <c r="AQ2" s="30">
+        <f>'Pre ISIC Consolidation'!AQ16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
@@ -1841,22 +3442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.1328125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>166</v>
       </c>
@@ -1867,7 +3470,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +3481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +3492,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +3503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1911,7 +3514,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +3525,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +3536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +3547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +3558,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +3569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1977,7 +3580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1988,7 +3591,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1999,7 +3602,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +3613,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2021,7 +3624,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +3635,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +3646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2054,7 +3657,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2065,7 +3668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2076,7 +3679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2087,7 +3690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2098,7 +3701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +3712,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2120,7 +3723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2131,7 +3734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2142,7 +3745,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2153,7 +3756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +3767,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +3778,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2186,7 +3789,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2197,7 +3800,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +3811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -2219,7 +3822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +3833,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2241,7 +3844,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -2252,7 +3855,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2280,14 +3883,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -2296,85 +3899,85 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="18" t="s">
         <v>88</v>
       </c>
@@ -2451,79 +4054,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="40"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
@@ -2603,11 +4206,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -2687,11 +4290,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -2771,11 +4374,11 @@
         <v>-0.41230499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -2855,11 +4458,11 @@
         <v>5.4578550000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -2939,11 +4542,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -3023,11 +4626,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -3107,11 +4710,11 @@
         <v>-0.78041799999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -3191,11 +4794,11 @@
         <v>-7.306692</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -3275,11 +4878,11 @@
         <v>-7.5684449999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -3359,11 +4962,11 @@
         <v>-3.7875320000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -3443,11 +5046,11 @@
         <v>1.633324</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -3527,11 +5130,11 @@
         <v>-5.6814530000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -3611,11 +5214,11 @@
         <v>-5.2262449999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -3695,11 +5298,11 @@
         <v>5.0534160000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -3779,11 +5382,11 @@
         <v>-2.0436770000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -3863,11 +5466,11 @@
         <v>9.0768789999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -3947,11 +5550,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -4031,11 +5634,11 @@
         <v>-1.4728779999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -4115,11 +5718,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -4199,11 +5802,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -4283,11 +5886,11 @@
         <v>-0.43349500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -4367,11 +5970,11 @@
         <v>3.9388109999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -4451,11 +6054,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -4535,11 +6138,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -4619,11 +6222,11 @@
         <v>-6.1508039999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -4703,11 +6306,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -4787,11 +6390,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -4871,11 +6474,11 @@
         <v>-12.157479</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -4955,11 +6558,11 @@
         <v>-3.1903109999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -5039,11 +6642,11 @@
         <v>3.5140600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -5123,11 +6726,11 @@
         <v>-4.3519209999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -5207,11 +6810,11 @@
         <v>7.1948999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -5291,11 +6894,11 @@
         <v>1.619569</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -5375,11 +6978,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -5459,11 +7062,11 @@
         <v>0.40523900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -5543,11 +7146,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -5627,11 +7230,11 @@
         <v>-2.4850850000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -5711,8 +7314,8 @@
         <v>-3.7280920000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -5797,8 +7400,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="53"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -5881,7 +7484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>163</v>
       </c>
@@ -5938,12 +7541,12 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5951,7 +7554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5961,14 +7564,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -5977,85 +7580,85 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="18" t="s">
         <v>88</v>
       </c>
@@ -6132,79 +7735,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="40"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
@@ -6284,11 +7887,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -6368,11 +7971,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -6452,11 +8055,11 @@
         <v>-0.99440499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -6536,11 +8139,11 @@
         <v>-1.4113450000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -6620,11 +8223,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -6704,11 +8307,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -6788,11 +8391,11 @@
         <v>1.134908</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -6872,11 +8475,11 @@
         <v>3.9299620000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -6956,11 +8559,11 @@
         <v>6.1357369999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -7040,11 +8643,11 @@
         <v>3.6655899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -7124,11 +8727,11 @@
         <v>0.82592299999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -7208,11 +8811,11 @@
         <v>-4.1779580000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -7292,11 +8895,11 @@
         <v>-4.2968669999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -7376,11 +8979,11 @@
         <v>4.51973</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -7460,11 +9063,11 @@
         <v>3.9679389999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -7544,11 +9147,11 @@
         <v>1.147543</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -7628,11 +9231,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -7712,11 +9315,11 @@
         <v>-0.78071100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -7796,11 +9399,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -7880,11 +9483,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -7964,11 +9567,11 @@
         <v>1.5516190000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -8048,11 +9651,11 @@
         <v>2.7416559999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -8132,11 +9735,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -8216,11 +9819,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -8300,11 +9903,11 @@
         <v>-1.2460469999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -8384,11 +9987,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -8468,11 +10071,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -8552,11 +10155,11 @@
         <v>7.6535659999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -8636,11 +10239,11 @@
         <v>-1.3690070000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -8720,11 +10323,11 @@
         <v>-2.4122000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -8804,11 +10407,11 @@
         <v>0.961565</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -8888,11 +10491,11 @@
         <v>-1.138253</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -8972,11 +10575,11 @@
         <v>1.128836</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -9056,11 +10659,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -9140,11 +10743,11 @@
         <v>-1.6236679999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -9224,11 +10827,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -9308,11 +10911,11 @@
         <v>-1.8656619999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -9392,8 +10995,8 @@
         <v>-0.77878700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -9478,8 +11081,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="53"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -9562,7 +11165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>161</v>
       </c>
@@ -9619,12 +11222,12 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9632,7 +11235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9642,14 +11245,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -9658,85 +11261,85 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="18" t="s">
         <v>88</v>
       </c>
@@ -9813,79 +11416,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="40"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
@@ -9965,11 +11568,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -10049,11 +11652,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -10133,11 +11736,11 @@
         <v>-1.2365539999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -10217,11 +11820,11 @@
         <v>2.221692</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -10301,11 +11904,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -10385,11 +11988,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10469,11 +12072,11 @@
         <v>2.0482369999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -10553,11 +12156,11 @@
         <v>-1.843931</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -10637,11 +12240,11 @@
         <v>-4.366085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -10721,11 +12324,11 @@
         <v>3.2391000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -10805,11 +12408,11 @@
         <v>1.1120110000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -10889,11 +12492,11 @@
         <v>2.3481399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -10973,11 +12576,11 @@
         <v>14.606757999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -11057,11 +12660,11 @@
         <v>10.282043</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -11141,11 +12744,11 @@
         <v>-0.77415500000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -11225,11 +12828,11 @@
         <v>3.0678649999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -11309,11 +12912,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -11393,11 +12996,11 @@
         <v>1.021649</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -11477,11 +13080,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -11561,11 +13164,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -11645,11 +13248,11 @@
         <v>0.51915</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -11729,11 +13332,11 @@
         <v>5.2213000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -11813,11 +13416,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -11897,11 +13500,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -11981,11 +13584,11 @@
         <v>1.257098</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -12065,11 +13668,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -12149,11 +13752,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -12233,11 +13836,11 @@
         <v>-1.094258</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -12317,11 +13920,11 @@
         <v>5.6272799999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -12401,11 +14004,11 @@
         <v>-3.3248039999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -12485,11 +14088,11 @@
         <v>-3.5240450000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -12569,11 +14172,11 @@
         <v>-1.659033</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -12653,11 +14256,11 @@
         <v>0.90396600000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -12737,11 +14340,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -12821,11 +14424,11 @@
         <v>2.8399130000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -12905,11 +14508,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -12989,11 +14592,11 @@
         <v>0.59411499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -13073,8 +14676,8 @@
         <v>0.809307</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -13159,8 +14762,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="53"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -13243,7 +14846,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>156</v>
       </c>
@@ -13300,12 +14903,12 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13313,7 +14916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13323,14 +14926,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -13339,85 +14942,85 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>88</v>
       </c>
@@ -13494,79 +15097,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="63"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="66"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -13646,11 +15249,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -13730,11 +15333,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -13814,11 +15417,11 @@
         <v>1.2860119999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -13898,11 +15501,11 @@
         <v>-0.35018700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -13982,11 +15585,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -14066,11 +15669,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -14150,11 +15753,11 @@
         <v>2.1498759999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -14234,11 +15837,11 @@
         <v>2.0222370000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -14318,11 +15921,11 @@
         <v>5.7767580000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -14402,11 +16005,11 @@
         <v>0.22875699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -14486,11 +16089,11 @@
         <v>1.154471</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -14570,11 +16173,11 @@
         <v>1.819712</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -14654,11 +16257,11 @@
         <v>0.21718399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -14738,11 +16341,11 @@
         <v>4.8727289999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -14822,11 +16425,11 @@
         <v>1.7411540000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -14906,11 +16509,11 @@
         <v>-5.7334000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -14990,11 +16593,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -15074,11 +16677,11 @@
         <v>-0.540134</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -15158,11 +16761,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
@@ -15242,11 +16845,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -15326,11 +16929,11 @@
         <v>2.1947709999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -15410,11 +17013,11 @@
         <v>2.8565960000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -15494,11 +17097,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -15578,11 +17181,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -15662,11 +17265,11 @@
         <v>0.743533</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -15746,11 +17349,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -15830,11 +17433,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -15914,11 +17517,11 @@
         <v>5.9123140000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -15998,11 +17601,11 @@
         <v>2.2810640000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="70"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -16082,11 +17685,11 @@
         <v>-0.19525600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -16166,11 +17769,11 @@
         <v>0.36936200000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -16250,11 +17853,11 @@
         <v>0.74837299999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -16334,11 +17937,11 @@
         <v>0.93288300000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -16418,11 +18021,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -16502,11 +18105,11 @@
         <v>2.492918</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -16586,11 +18189,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -16670,11 +18273,11 @@
         <v>0.55889599999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -16754,8 +18357,8 @@
         <v>1.226499</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -16840,8 +18443,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -16924,7 +18527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>172</v>
       </c>
@@ -16981,13 +18584,13 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[G_I],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[G_I],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16995,7 +18598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -17005,14 +18608,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -17021,85 +18624,85 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>88</v>
       </c>
@@ -17176,79 +18779,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="63"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="66"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -17328,11 +18931,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -17412,11 +19015,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -17496,11 +19099,11 @@
         <v>-1.0669930000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -17580,11 +19183,11 @@
         <v>-0.58229799999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -17664,11 +19267,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -17748,11 +19351,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -17832,11 +19435,11 @@
         <v>2.7130079999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -17916,11 +19519,11 @@
         <v>0.363234</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -18000,11 +19603,11 @@
         <v>13.112273999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -18084,11 +19687,11 @@
         <v>-1.184814</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -18168,11 +19771,11 @@
         <v>4.5946550000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -18252,11 +19855,11 @@
         <v>-0.679755</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -18336,11 +19939,11 @@
         <v>-4.3888020000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -18420,11 +20023,11 @@
         <v>1.8973899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -18504,11 +20107,11 @@
         <v>5.3770059999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -18588,11 +20191,11 @@
         <v>13.423503999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -18672,11 +20275,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -18756,11 +20359,11 @@
         <v>-0.45841399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -18840,11 +20443,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
@@ -18924,11 +20527,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -19008,11 +20611,11 @@
         <v>0.95311699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -19092,11 +20695,11 @@
         <v>-11.227334000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -19176,11 +20779,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -19260,11 +20863,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -19344,11 +20947,11 @@
         <v>0.390212</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -19428,11 +21031,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -19512,11 +21115,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -19596,11 +21199,11 @@
         <v>-2.3607429999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -19680,11 +21283,11 @@
         <v>-2.3338739999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="70"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -19764,11 +21367,11 @@
         <v>2.1424539999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -19848,11 +21451,11 @@
         <v>-1.444194</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -19932,11 +21535,11 @@
         <v>-2.0531670000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -20016,11 +21619,11 @@
         <v>-0.238457</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -20100,11 +21703,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -20184,11 +21787,11 @@
         <v>0.751336</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -20268,11 +21871,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -20352,11 +21955,11 @@
         <v>0.43094199999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -20436,8 +22039,8 @@
         <v>0.70303400000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -20522,8 +22125,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -20606,7 +22209,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>177</v>
       </c>
@@ -20663,13 +22266,13 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[J],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[J],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -20677,7 +22280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -20687,14 +22290,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -20703,85 +22306,85 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>88</v>
       </c>
@@ -20858,79 +22461,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="63"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="66"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -21010,11 +22613,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -21094,11 +22697,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -21178,11 +22781,11 @@
         <v>3.092095</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -21262,11 +22865,11 @@
         <v>6.6225449999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -21346,11 +22949,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -21430,11 +23033,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -21514,11 +23117,11 @@
         <v>2.1183550000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -21598,11 +23201,11 @@
         <v>0.38312400000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -21682,11 +23285,11 @@
         <v>12.381097</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -21766,11 +23369,11 @@
         <v>-5.1890830000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -21850,11 +23453,11 @@
         <v>1.5078339999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -21934,11 +23537,11 @@
         <v>3.4453830000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -22018,11 +23621,11 @@
         <v>-3.6019130000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -22102,11 +23705,11 @@
         <v>3.4106480000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -22186,11 +23789,11 @@
         <v>4.0365460000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -22270,11 +23873,11 @@
         <v>0.39213500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -22354,11 +23957,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -22438,11 +24041,11 @@
         <v>1.551477</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -22522,11 +24125,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -22606,11 +24209,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -22690,11 +24293,11 @@
         <v>-7.5366770000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -22774,11 +24377,11 @@
         <v>-2.006246</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -22858,11 +24461,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -22942,11 +24545,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -23026,11 +24629,11 @@
         <v>-1.6608369999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -23110,11 +24713,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -23194,11 +24797,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -23278,11 +24881,11 @@
         <v>12.720295</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -23362,11 +24965,11 @@
         <v>4.2924850000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="70"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -23446,11 +25049,11 @@
         <v>2.5696210000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -23530,11 +25133,11 @@
         <v>3.6058889999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -23614,11 +25217,11 @@
         <v>6.7364819999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -23698,11 +25301,11 @@
         <v>0.92974400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -23782,11 +25385,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -23866,11 +25469,11 @@
         <v>-0.68689999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -23950,11 +25553,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -24034,11 +25637,11 @@
         <v>2.3646639999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -24118,8 +25721,8 @@
         <v>1.8559030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -24204,8 +25807,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -24288,7 +25891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>181</v>
       </c>
@@ -24345,12 +25948,12 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24358,7 +25961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -24368,14 +25971,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -24384,85 +25987,85 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>88</v>
       </c>
@@ -24539,79 +26142,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="63"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="66"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -24691,11 +26294,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -24775,11 +26378,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -24859,11 +26462,11 @@
         <v>0.25144100000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -24943,11 +26546,11 @@
         <v>-1.709587</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -25027,11 +26630,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -25111,11 +26714,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -25195,11 +26798,11 @@
         <v>4.3434169999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -25279,11 +26882,11 @@
         <v>2.2677870000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -25363,11 +26966,11 @@
         <v>7.42544</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -25447,11 +27050,11 @@
         <v>0.49510399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -25531,11 +27134,11 @@
         <v>1.8960680000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -25615,11 +27218,11 @@
         <v>1.077097</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -25699,11 +27302,11 @@
         <v>2.5004719999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -25783,11 +27386,11 @@
         <v>1.718969</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -25867,11 +27470,11 @@
         <v>0.50105200000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -25951,11 +27554,11 @@
         <v>0.89644299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -26035,11 +27638,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -26119,11 +27722,11 @@
         <v>-1.269191</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -26203,11 +27806,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -26287,11 +27890,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -26371,11 +27974,11 @@
         <v>8.1930259999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -26455,11 +28058,11 @@
         <v>4.5875830000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -26539,11 +28142,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -26623,11 +28226,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -26707,11 +28310,11 @@
         <v>2.2294209999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -26791,11 +28394,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -26875,11 +28478,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -26959,11 +28562,11 @@
         <v>6.4787759999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -27043,11 +28646,11 @@
         <v>0.81517200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="70"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -27127,11 +28730,11 @@
         <v>-2.5442870000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -27211,11 +28814,11 @@
         <v>0.56969800000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -27295,11 +28898,11 @@
         <v>-0.143149</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -27379,11 +28982,11 @@
         <v>-0.99145700000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -27463,11 +29066,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -27547,11 +29150,11 @@
         <v>-0.88053199999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -27631,11 +29234,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -27715,11 +29318,11 @@
         <v>0.330847</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -27799,8 +29402,8 @@
         <v>0.34225800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -27885,8 +29488,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -27969,7 +29572,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>185</v>
       </c>
@@ -28026,12 +29629,12 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
+++ b/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\LPGRbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\LPGRbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7375B0B7-A4F2-4411-A4A3-B30D07A74F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24195" windowHeight="20145"/>
+    <workbookView xWindow="-27600" yWindow="1455" windowWidth="25995" windowHeight="13605" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Pre ISIC Consolidation" sheetId="19" r:id="rId10"/>
     <sheet name="LPGRbIC" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +37,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -693,7 +696,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -1046,22 +1049,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,40 +1100,40 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,39 +1169,39 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Comma 2" xfId="8"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 4 2 2" xfId="7"/>
-    <cellStyle name="Normal 4 3" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1475,27 +1478,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.59765625" customWidth="1"/>
+    <col min="2" max="2" width="77.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,49 +1506,49 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=PDBI_I4"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1553,23 +1556,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>211</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="AP1" s="29"/>
       <c r="AQ1" s="29"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>3718500</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>210</v>
       </c>
@@ -1925,7 +1928,7 @@
       <c r="AP5" s="29"/>
       <c r="AQ5" s="29"/>
     </row>
-    <row r="6" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>203</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2272,7 +2275,7 @@
       <c r="AP8" s="28"/>
       <c r="AQ8" s="28"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>204</v>
       </c>
@@ -2319,7 +2322,7 @@
       <c r="AP9" s="29"/>
       <c r="AQ9" s="29"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>194</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -2491,7 +2494,7 @@
         <v>193</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>196</v>
@@ -2506,13 +2509,13 @@
         <v>199</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>24</v>
@@ -2521,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>27</v>
@@ -2581,7 +2584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>212</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="AP13" s="29"/>
       <c r="AQ13" s="29"/>
     </row>
-    <row r="14" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>203</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -2932,176 +2935,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,B14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,B14),0)</f>
+        <f t="shared" ref="B16:AQ16" si="1">IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,B14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,B14),0)</f>
         <v>2.3536263333333338E-2</v>
       </c>
       <c r="C16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,C14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,C14),0)</f>
+        <f t="shared" si="1"/>
         <v>5.5526191666666639E-3</v>
       </c>
       <c r="D16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,D14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,D14),0)</f>
+        <f t="shared" si="1"/>
         <v>5.5526191666666631E-3</v>
       </c>
       <c r="E16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,E14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,E14),0)</f>
+        <f t="shared" si="1"/>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="1"/>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="J16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333331E-2</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="N16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="O16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="P16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="R16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="S16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="T16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="U16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="V16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333338E-2</v>
+      </c>
+      <c r="W16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="X16" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3536263333333335E-2</v>
+      </c>
+      <c r="Y16" s="30">
+        <f t="shared" si="1"/>
+        <v>4.6193980672039918E-3</v>
+      </c>
+      <c r="Z16" s="30">
+        <f t="shared" si="1"/>
+        <v>5.5526191666666639E-3</v>
+      </c>
+      <c r="AA16" s="30">
+        <f t="shared" si="1"/>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AB16" s="30">
+        <f t="shared" si="1"/>
+        <v>5.5526191666666631E-3</v>
+      </c>
+      <c r="AC16" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,F14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,F14),0)</f>
-        <v>5.5526191666666639E-3</v>
-      </c>
-      <c r="G16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,G14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,G14),0)</f>
-        <v>2.3536263333333338E-2</v>
-      </c>
-      <c r="H16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,H14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,H14),0)</f>
-        <v>2.3536263333333338E-2</v>
-      </c>
-      <c r="I16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,I14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,I14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="J16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,J14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,J14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="K16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,K14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,K14),0)</f>
-        <v>2.3536263333333331E-2</v>
-      </c>
-      <c r="L16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,L14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,L14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="M16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,M14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,M14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="N16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,N14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,N14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,O14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,O14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="P16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,P14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,P14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="Q16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Q14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Q14),0)</f>
-        <v>2.3536263333333338E-2</v>
-      </c>
-      <c r="R16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,R14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,R14),0)</f>
-        <v>2.3536263333333335E-2</v>
-      </c>
-      <c r="S16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,S14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,S14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,T14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,T14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,U14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,U14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,V14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,V14),0)</f>
-        <v>2.3536263333333338E-2</v>
-      </c>
-      <c r="W16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,W14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,W14),0)</f>
-        <v>2.3536263333333338E-2</v>
-      </c>
-      <c r="X16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,X14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,X14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Y14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Y14),0)</f>
-        <v>6.2385728102381686E-3</v>
-      </c>
-      <c r="Z16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,Z14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,Z14),0)</f>
-        <v>5.5526191666666639E-3</v>
-      </c>
-      <c r="AA16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AA14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AA14),0)</f>
-        <v>5.5526191666666631E-3</v>
-      </c>
-      <c r="AB16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AB14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AB14),0)</f>
-        <v>5.5526191666666631E-3</v>
-      </c>
-      <c r="AC16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AC14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AC14),0)</f>
-        <v>0</v>
-      </c>
       <c r="AD16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AD14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AD14),0)</f>
+        <f t="shared" si="1"/>
         <v>9.1992191666666681E-3</v>
       </c>
       <c r="AE16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AE14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AE14),0)</f>
+        <f t="shared" si="1"/>
         <v>9.1992191666666664E-3</v>
       </c>
       <c r="AF16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AF14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AF14),0)</f>
+        <f t="shared" si="1"/>
         <v>9.1992191666666664E-3</v>
       </c>
       <c r="AG16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AG14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AG14),0)</f>
+        <f t="shared" si="1"/>
         <v>3.010881E-2</v>
       </c>
       <c r="AH16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AH14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AH14),0)</f>
+        <f t="shared" si="1"/>
         <v>3.010881E-2</v>
       </c>
       <c r="AI16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AI14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AI14),0)</f>
+        <f t="shared" si="1"/>
         <v>3.010881E-2</v>
       </c>
       <c r="AJ16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AJ14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AJ14),0)</f>
+        <f t="shared" si="1"/>
         <v>1.6492819583333332E-2</v>
       </c>
       <c r="AK16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AK14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AK14),0)</f>
+        <f t="shared" si="1"/>
         <v>1.6492819583333332E-2</v>
       </c>
       <c r="AL16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AL14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AL14),0)</f>
+        <f t="shared" si="1"/>
         <v>1.6492819583333332E-2</v>
       </c>
       <c r="AM16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AM14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AM14),0)</f>
+        <f t="shared" si="1"/>
         <v>-2.5208329166666655E-3</v>
       </c>
       <c r="AN16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AN14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AN14),0)</f>
+        <f t="shared" si="1"/>
         <v>-2.5208329166666655E-3</v>
       </c>
       <c r="AO16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AO14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AO14),0)</f>
+        <f t="shared" si="1"/>
         <v>-2.5208329166666655E-3</v>
       </c>
       <c r="AP16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AP14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AP14),0)</f>
+        <f t="shared" si="1"/>
         <v>-2.5208329166666655E-3</v>
       </c>
       <c r="AQ16" s="30">
-        <f>IFERROR(SUMIFS($B15:$AQ15,$B$11:$AQ$11,AQ14)/SUMIFS($B3:$AQ3,$B$11:$AQ$11,AQ14),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3111,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3121,13 +3124,13 @@
       <selection activeCell="B2" sqref="B2:AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="39" width="10.1328125" customWidth="1"/>
+    <col min="2" max="39" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>203</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="E2" s="30">
         <f>'Pre ISIC Consolidation'!E16</f>
-        <v>0</v>
+        <v>5.5526191666666639E-3</v>
       </c>
       <c r="F2" s="30">
         <f>'Pre ISIC Consolidation'!F16</f>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="N2" s="30">
         <f>'Pre ISIC Consolidation'!N16</f>
-        <v>0</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="O2" s="30">
         <f>'Pre ISIC Consolidation'!O16</f>
@@ -3332,15 +3335,15 @@
       </c>
       <c r="S2" s="30">
         <f>'Pre ISIC Consolidation'!S16</f>
-        <v>0</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="T2" s="30">
         <f>'Pre ISIC Consolidation'!T16</f>
-        <v>0</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="U2" s="30">
         <f>'Pre ISIC Consolidation'!U16</f>
-        <v>0</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="V2" s="30">
         <f>'Pre ISIC Consolidation'!V16</f>
@@ -3348,15 +3351,15 @@
       </c>
       <c r="W2" s="30">
         <f>'Pre ISIC Consolidation'!W16</f>
-        <v>2.3536263333333338E-2</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="X2" s="30">
         <f>'Pre ISIC Consolidation'!X16</f>
-        <v>0</v>
+        <v>2.3536263333333335E-2</v>
       </c>
       <c r="Y2" s="30">
         <f>'Pre ISIC Consolidation'!Y16</f>
-        <v>6.2385728102381686E-3</v>
+        <v>4.6193980672039918E-3</v>
       </c>
       <c r="Z2" s="30">
         <f>'Pre ISIC Consolidation'!Z16</f>
@@ -3431,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
@@ -3442,7 +3445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -3452,14 +3455,14 @@
       <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.08984375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>166</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -3873,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -3883,14 +3886,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="16"/>
+    <col min="1" max="2" width="27.36328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -3899,80 +3902,80 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="53"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
@@ -4088,7 +4091,7 @@
       <c r="AA6" s="41"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
@@ -4206,11 +4209,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -4290,11 +4293,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -4374,11 +4377,11 @@
         <v>-0.41230499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -4458,11 +4461,11 @@
         <v>5.4578550000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -4542,11 +4545,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -4626,11 +4629,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -4710,11 +4713,11 @@
         <v>-0.78041799999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -4794,11 +4797,11 @@
         <v>-7.306692</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -4878,11 +4881,11 @@
         <v>-7.5684449999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -4962,11 +4965,11 @@
         <v>-3.7875320000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -5046,11 +5049,11 @@
         <v>1.633324</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -5130,11 +5133,11 @@
         <v>-5.6814530000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -5214,11 +5217,11 @@
         <v>-5.2262449999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -5298,11 +5301,11 @@
         <v>5.0534160000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -5382,11 +5385,11 @@
         <v>-2.0436770000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -5466,11 +5469,11 @@
         <v>9.0768789999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -5550,11 +5553,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -5634,11 +5637,11 @@
         <v>-1.4728779999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -5718,11 +5721,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -5802,11 +5805,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -5886,11 +5889,11 @@
         <v>-0.43349500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -5970,11 +5973,11 @@
         <v>3.9388109999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -6054,11 +6057,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -6138,11 +6141,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -6222,11 +6225,11 @@
         <v>-6.1508039999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -6306,11 +6309,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="48" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -6390,11 +6393,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -6474,11 +6477,11 @@
         <v>-12.157479</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="48" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -6558,11 +6561,11 @@
         <v>-3.1903109999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -6642,11 +6645,11 @@
         <v>3.5140600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -6726,11 +6729,11 @@
         <v>-4.3519209999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -6810,11 +6813,11 @@
         <v>7.1948999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -6894,11 +6897,11 @@
         <v>1.619569</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -6978,11 +6981,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="48" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -7062,11 +7065,11 @@
         <v>0.40523900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="48" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -7146,11 +7149,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="49"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -7230,11 +7233,11 @@
         <v>-2.4850850000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="49"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -7314,8 +7317,8 @@
         <v>-3.7280920000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -7400,8 +7403,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="53"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -7484,18 +7487,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -7509,44 +7537,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7554,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -7564,14 +7567,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="16"/>
+    <col min="1" max="2" width="27.36328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -7580,80 +7583,80 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="53"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
@@ -7769,7 +7772,7 @@
       <c r="AA6" s="41"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -7803,7 +7806,7 @@
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
@@ -7887,11 +7890,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -7971,11 +7974,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -8055,11 +8058,11 @@
         <v>-0.99440499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -8139,11 +8142,11 @@
         <v>-1.4113450000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -8223,11 +8226,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -8307,11 +8310,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -8391,11 +8394,11 @@
         <v>1.134908</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -8475,11 +8478,11 @@
         <v>3.9299620000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -8559,11 +8562,11 @@
         <v>6.1357369999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -8643,11 +8646,11 @@
         <v>3.6655899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -8727,11 +8730,11 @@
         <v>0.82592299999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -8811,11 +8814,11 @@
         <v>-4.1779580000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -8895,11 +8898,11 @@
         <v>-4.2968669999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -8979,11 +8982,11 @@
         <v>4.51973</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -9063,11 +9066,11 @@
         <v>3.9679389999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -9147,11 +9150,11 @@
         <v>1.147543</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -9231,11 +9234,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -9315,11 +9318,11 @@
         <v>-0.78071100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -9399,11 +9402,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -9483,11 +9486,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -9567,11 +9570,11 @@
         <v>1.5516190000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -9651,11 +9654,11 @@
         <v>2.7416559999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -9735,11 +9738,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -9819,11 +9822,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -9903,11 +9906,11 @@
         <v>-1.2460469999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -9987,11 +9990,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="48" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -10071,11 +10074,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -10155,11 +10158,11 @@
         <v>7.6535659999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="48" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -10239,11 +10242,11 @@
         <v>-1.3690070000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -10323,11 +10326,11 @@
         <v>-2.4122000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -10407,11 +10410,11 @@
         <v>0.961565</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -10491,11 +10494,11 @@
         <v>-1.138253</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -10575,11 +10578,11 @@
         <v>1.128836</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -10659,11 +10662,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="48" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -10743,11 +10746,11 @@
         <v>-1.6236679999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="48" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -10827,11 +10830,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="49"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -10911,11 +10914,11 @@
         <v>-1.8656619999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="49"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -10995,8 +10998,8 @@
         <v>-0.77878700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -11081,8 +11084,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="53"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -11165,18 +11168,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -11190,44 +11218,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11235,7 +11238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11245,14 +11248,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="16"/>
+    <col min="1" max="2" width="27.36328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -11261,80 +11264,80 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="53"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>112</v>
       </c>
@@ -11450,7 +11453,7 @@
       <c r="AA6" s="41"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -11484,7 +11487,7 @@
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
@@ -11568,11 +11571,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
@@ -11652,11 +11655,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
@@ -11736,11 +11739,11 @@
         <v>-1.2365539999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -11820,11 +11823,11 @@
         <v>2.221692</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -11904,11 +11907,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
@@ -11988,11 +11991,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
@@ -12072,11 +12075,11 @@
         <v>2.0482369999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
@@ -12156,11 +12159,11 @@
         <v>-1.843931</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
@@ -12240,11 +12243,11 @@
         <v>-4.366085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
@@ -12324,11 +12327,11 @@
         <v>3.2391000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
@@ -12408,11 +12411,11 @@
         <v>1.1120110000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -12492,11 +12495,11 @@
         <v>2.3481399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
@@ -12576,11 +12579,11 @@
         <v>14.606757999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
@@ -12660,11 +12663,11 @@
         <v>10.282043</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
@@ -12744,11 +12747,11 @@
         <v>-0.77415500000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
@@ -12828,11 +12831,11 @@
         <v>3.0678649999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
@@ -12912,11 +12915,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
@@ -12996,11 +12999,11 @@
         <v>1.021649</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -13080,11 +13083,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="19" t="s">
         <v>7</v>
       </c>
@@ -13164,11 +13167,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
@@ -13248,11 +13251,11 @@
         <v>0.51915</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
@@ -13332,11 +13335,11 @@
         <v>5.2213000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
@@ -13416,11 +13419,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
@@ -13500,11 +13503,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -13584,11 +13587,11 @@
         <v>1.257098</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
@@ -13668,11 +13671,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="48" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="19" t="s">
         <v>7</v>
       </c>
@@ -13752,11 +13755,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="19" t="s">
         <v>7</v>
       </c>
@@ -13836,11 +13839,11 @@
         <v>-1.094258</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="48" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
@@ -13920,11 +13923,11 @@
         <v>5.6272799999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
@@ -14004,11 +14007,11 @@
         <v>-3.3248039999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
@@ -14088,11 +14091,11 @@
         <v>-3.5240450000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="19" t="s">
         <v>7</v>
       </c>
@@ -14172,11 +14175,11 @@
         <v>-1.659033</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="19" t="s">
         <v>7</v>
       </c>
@@ -14256,11 +14259,11 @@
         <v>0.90396600000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
@@ -14340,11 +14343,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="48" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="19" t="s">
         <v>7</v>
       </c>
@@ -14424,11 +14427,11 @@
         <v>2.8399130000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="48" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="19" t="s">
         <v>7</v>
       </c>
@@ -14508,11 +14511,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="49"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
@@ -14592,11 +14595,11 @@
         <v>0.59411499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="49"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="19" t="s">
         <v>7</v>
       </c>
@@ -14676,8 +14679,8 @@
         <v>0.809307</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -14762,8 +14765,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="53"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
       <c r="B47" s="22" t="s">
         <v>150</v>
       </c>
@@ -14846,18 +14849,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -14871,44 +14899,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14916,7 +14919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -14926,14 +14929,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="2" width="27.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -14942,80 +14945,80 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="76"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
@@ -15097,7 +15100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
@@ -15131,7 +15134,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
@@ -15165,7 +15168,7 @@
       <c r="AA7" s="67"/>
       <c r="AB7" s="68"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
@@ -15249,11 +15252,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -15333,11 +15336,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -15417,11 +15420,11 @@
         <v>1.2860119999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -15501,11 +15504,11 @@
         <v>-0.35018700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -15585,11 +15588,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -15669,11 +15672,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -15753,11 +15756,11 @@
         <v>2.1498759999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -15837,11 +15840,11 @@
         <v>2.0222370000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -15921,11 +15924,11 @@
         <v>5.7767580000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -16005,11 +16008,11 @@
         <v>0.22875699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -16089,11 +16092,11 @@
         <v>1.154471</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -16173,11 +16176,11 @@
         <v>1.819712</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -16257,11 +16260,11 @@
         <v>0.21718399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -16341,11 +16344,11 @@
         <v>4.8727289999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -16425,11 +16428,11 @@
         <v>1.7411540000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -16509,11 +16512,11 @@
         <v>-5.7334000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -16593,11 +16596,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -16677,11 +16680,11 @@
         <v>-0.540134</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -16761,11 +16764,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
@@ -16845,11 +16848,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -16929,11 +16932,11 @@
         <v>2.1947709999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -17013,11 +17016,11 @@
         <v>2.8565960000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -17097,11 +17100,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -17181,11 +17184,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -17265,11 +17268,11 @@
         <v>0.743533</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -17349,11 +17352,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -17433,11 +17436,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -17517,11 +17520,11 @@
         <v>5.9123140000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -17601,11 +17604,11 @@
         <v>2.2810640000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -17685,11 +17688,11 @@
         <v>-0.19525600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -17769,11 +17772,11 @@
         <v>0.36936200000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -17853,11 +17856,11 @@
         <v>0.74837299999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -17937,11 +17940,11 @@
         <v>0.93288300000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -18021,11 +18024,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -18105,11 +18108,11 @@
         <v>2.492918</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="72"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -18189,11 +18192,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="72"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -18273,11 +18276,11 @@
         <v>0.55889599999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="71" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="72"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -18357,8 +18360,8 @@
         <v>1.226499</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -18443,8 +18446,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="76"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -18527,18 +18530,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -18552,45 +18580,20 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[G_I],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[G_I],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18598,7 +18601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -18608,14 +18611,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="2" width="27.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -18624,80 +18627,80 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="76"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
@@ -18779,7 +18782,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
@@ -18813,7 +18816,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
@@ -18847,7 +18850,7 @@
       <c r="AA7" s="67"/>
       <c r="AB7" s="68"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
@@ -18931,11 +18934,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -19015,11 +19018,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -19099,11 +19102,11 @@
         <v>-1.0669930000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -19183,11 +19186,11 @@
         <v>-0.58229799999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -19267,11 +19270,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -19351,11 +19354,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -19435,11 +19438,11 @@
         <v>2.7130079999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -19519,11 +19522,11 @@
         <v>0.363234</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -19603,11 +19606,11 @@
         <v>13.112273999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -19687,11 +19690,11 @@
         <v>-1.184814</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -19771,11 +19774,11 @@
         <v>4.5946550000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -19855,11 +19858,11 @@
         <v>-0.679755</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -19939,11 +19942,11 @@
         <v>-4.3888020000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -20023,11 +20026,11 @@
         <v>1.8973899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -20107,11 +20110,11 @@
         <v>5.3770059999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -20191,11 +20194,11 @@
         <v>13.423503999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -20275,11 +20278,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -20359,11 +20362,11 @@
         <v>-0.45841399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -20443,11 +20446,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
@@ -20527,11 +20530,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -20611,11 +20614,11 @@
         <v>0.95311699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -20695,11 +20698,11 @@
         <v>-11.227334000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -20779,11 +20782,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -20863,11 +20866,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -20947,11 +20950,11 @@
         <v>0.390212</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -21031,11 +21034,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -21115,11 +21118,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -21199,11 +21202,11 @@
         <v>-2.3607429999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -21283,11 +21286,11 @@
         <v>-2.3338739999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -21367,11 +21370,11 @@
         <v>2.1424539999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -21451,11 +21454,11 @@
         <v>-1.444194</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -21535,11 +21538,11 @@
         <v>-2.0531670000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -21619,11 +21622,11 @@
         <v>-0.238457</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -21703,11 +21706,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -21787,11 +21790,11 @@
         <v>0.751336</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="72"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -21871,11 +21874,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="72"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -21955,11 +21958,11 @@
         <v>0.43094199999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="71" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="72"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -22039,8 +22042,8 @@
         <v>0.70303400000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -22125,8 +22128,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="76"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -22209,18 +22212,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -22234,45 +22262,20 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[J],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C27" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[SUBJECT].[I4_ANA_GVAEMP],[ACTIVITY].[J],[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A48" r:id="rId7" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22280,7 +22283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -22290,14 +22293,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="2" width="27.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -22306,80 +22309,80 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="76"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
@@ -22461,7 +22464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
@@ -22495,7 +22498,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
@@ -22529,7 +22532,7 @@
       <c r="AA7" s="67"/>
       <c r="AB7" s="68"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
@@ -22613,11 +22616,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -22697,11 +22700,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -22781,11 +22784,11 @@
         <v>3.092095</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -22865,11 +22868,11 @@
         <v>6.6225449999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -22949,11 +22952,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -23033,11 +23036,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -23117,11 +23120,11 @@
         <v>2.1183550000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -23201,11 +23204,11 @@
         <v>0.38312400000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -23285,11 +23288,11 @@
         <v>12.381097</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -23369,11 +23372,11 @@
         <v>-5.1890830000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -23453,11 +23456,11 @@
         <v>1.5078339999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -23537,11 +23540,11 @@
         <v>3.4453830000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -23621,11 +23624,11 @@
         <v>-3.6019130000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -23705,11 +23708,11 @@
         <v>3.4106480000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -23789,11 +23792,11 @@
         <v>4.0365460000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -23873,11 +23876,11 @@
         <v>0.39213500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -23957,11 +23960,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -24041,11 +24044,11 @@
         <v>1.551477</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -24125,11 +24128,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -24209,11 +24212,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -24293,11 +24296,11 @@
         <v>-7.5366770000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -24377,11 +24380,11 @@
         <v>-2.006246</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -24461,11 +24464,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -24545,11 +24548,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -24629,11 +24632,11 @@
         <v>-1.6608369999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -24713,11 +24716,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -24797,11 +24800,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -24881,11 +24884,11 @@
         <v>12.720295</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -24965,11 +24968,11 @@
         <v>4.2924850000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -25049,11 +25052,11 @@
         <v>2.5696210000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -25133,11 +25136,11 @@
         <v>3.6058889999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -25217,11 +25220,11 @@
         <v>6.7364819999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -25301,11 +25304,11 @@
         <v>0.92974400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -25385,11 +25388,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -25469,11 +25472,11 @@
         <v>-0.68689999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="72"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -25553,11 +25556,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="72"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -25637,11 +25640,11 @@
         <v>2.3646639999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="71" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="72"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -25721,8 +25724,8 @@
         <v>1.8559030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -25807,8 +25810,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="76"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -25891,18 +25894,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -25916,44 +25944,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25961,7 +25964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -25971,14 +25974,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="2" width="27.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -25987,80 +25990,80 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="76"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="59"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
@@ -26142,7 +26145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>112</v>
       </c>
@@ -26176,7 +26179,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
@@ -26210,7 +26213,7 @@
       <c r="AA7" s="67"/>
       <c r="AB7" s="68"/>
     </row>
-    <row r="8" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
@@ -26294,11 +26297,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -26378,11 +26381,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -26462,11 +26465,11 @@
         <v>0.25144100000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -26546,11 +26549,11 @@
         <v>-1.709587</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -26630,11 +26633,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -26714,11 +26717,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -26798,11 +26801,11 @@
         <v>4.3434169999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -26882,11 +26885,11 @@
         <v>2.2677870000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -26966,11 +26969,11 @@
         <v>7.42544</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -27050,11 +27053,11 @@
         <v>0.49510399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -27134,11 +27137,11 @@
         <v>1.8960680000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -27218,11 +27221,11 @@
         <v>1.077097</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -27302,11 +27305,11 @@
         <v>2.5004719999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -27386,11 +27389,11 @@
         <v>1.718969</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -27470,11 +27473,11 @@
         <v>0.50105200000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -27554,11 +27557,11 @@
         <v>0.89644299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="73" t="s">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -27638,11 +27641,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -27722,11 +27725,11 @@
         <v>-1.269191</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -27806,11 +27809,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -27890,11 +27893,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -27974,11 +27977,11 @@
         <v>8.1930259999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -28058,11 +28061,11 @@
         <v>4.5875830000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -28142,11 +28145,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -28226,11 +28229,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -28310,11 +28313,11 @@
         <v>2.2294209999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -28394,11 +28397,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="72"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -28478,11 +28481,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -28562,11 +28565,11 @@
         <v>6.4787759999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -28646,11 +28649,11 @@
         <v>0.81517200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -28730,11 +28733,11 @@
         <v>-2.5442870000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -28814,11 +28817,11 @@
         <v>0.56969800000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -28898,11 +28901,11 @@
         <v>-0.143149</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -28982,11 +28985,11 @@
         <v>-0.99145700000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -29066,11 +29069,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -29150,11 +29153,11 @@
         <v>-0.88053199999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="72"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -29234,11 +29237,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="72"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -29318,11 +29321,11 @@
         <v>0.330847</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="71" t="s">
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="72"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -29402,8 +29405,8 @@
         <v>0.34225800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -29488,8 +29491,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="76"/>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
@@ -29572,18 +29575,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -29597,44 +29625,19 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[MEASURE].[GRW]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=PDBI_I4" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
